--- a/4. DATA VALIDATION/Exercises+and+Datasets/Exercises/2_1_car_loan_calc.xlsx
+++ b/4. DATA VALIDATION/Exercises+and+Datasets/Exercises/2_1_car_loan_calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UBT\other things\DataCamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\myTutorials\DataCamp\4. DATA VALIDATION\Exercises+and+Datasets\Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BB4433D-6825-462E-8F00-E3D54B4223E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F53E66-4E0A-4440-BE6E-587352AFE9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C93A5037-5B2F-4554-A50F-6385F02EA32A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C93A5037-5B2F-4554-A50F-6385F02EA32A}"/>
   </bookViews>
   <sheets>
     <sheet name="Loan-Calc" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Car Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -619,9 +618,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;₪&quot;* #,##0.00_-;\-&quot;₪&quot;* #,##0.00_-;_-&quot;₪&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;₪&quot;* #,##0.00_-;\-&quot;₪&quot;* #,##0.00_-;_-&quot;₪&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -718,7 +717,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
@@ -738,20 +737,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1199,19 +1198,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5FB1A6-9ADC-4E61-A133-41102D3066BC}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>168</v>
       </c>
@@ -1221,7 +1220,7 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1259,7 +1258,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>Silver</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>Excellent</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -1356,133 +1355,133 @@
         <v>M Sport Trim, Gesture Control</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F13" s="7"/>
       <c r="K13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E16" s="9"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="9"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="9"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="9"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" s="9"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="9"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" s="9"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" s="9"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24" s="9"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25" s="9"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="9"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" s="9"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30" s="9"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31" s="9"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" s="9"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="9"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E34" s="9"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E35" s="9"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E36" s="9"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E37" s="9"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E38" s="9"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E39" s="9"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E40" s="9"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E41" s="9"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E42" s="9"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E43" s="9"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E44" s="9"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E45" s="9"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E46" s="9">
         <f t="shared" ref="E46:E80" si="0">IFERROR(IF(E45+30&lt;$F$9+30*$F$5,EDATE(E45,"1"),""),"")</f>
         <v>31</v>
@@ -1492,7 +1491,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E47" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1502,7 +1501,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E48" s="9">
         <f t="shared" si="0"/>
         <v>88</v>
@@ -1512,7 +1511,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E49" s="9">
         <f t="shared" si="0"/>
         <v>119</v>
@@ -1522,7 +1521,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E50" s="9">
         <f t="shared" si="0"/>
         <v>149</v>
@@ -1532,7 +1531,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E51" s="9">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -1542,7 +1541,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E52" s="9">
         <f t="shared" si="0"/>
         <v>210</v>
@@ -1552,7 +1551,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E53" s="9">
         <f t="shared" si="0"/>
         <v>241</v>
@@ -1562,7 +1561,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E54" s="9">
         <f t="shared" si="0"/>
         <v>272</v>
@@ -1572,7 +1571,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E55" s="9">
         <f t="shared" si="0"/>
         <v>302</v>
@@ -1582,7 +1581,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E56" s="9">
         <f t="shared" si="0"/>
         <v>333</v>
@@ -1592,7 +1591,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E57" s="9">
         <f t="shared" si="0"/>
         <v>363</v>
@@ -1602,7 +1601,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E58" s="9">
         <f t="shared" si="0"/>
         <v>394</v>
@@ -1612,7 +1611,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E59" s="9">
         <f t="shared" si="0"/>
         <v>425</v>
@@ -1622,7 +1621,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E60" s="9">
         <f t="shared" si="0"/>
         <v>453</v>
@@ -1632,7 +1631,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E61" s="9">
         <f t="shared" si="0"/>
         <v>484</v>
@@ -1642,7 +1641,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E62" s="9">
         <f t="shared" si="0"/>
         <v>514</v>
@@ -1652,7 +1651,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E63" s="9">
         <f t="shared" si="0"/>
         <v>545</v>
@@ -1662,7 +1661,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E64" s="9">
         <f t="shared" si="0"/>
         <v>575</v>
@@ -1672,7 +1671,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E65" s="9">
         <f t="shared" si="0"/>
         <v>606</v>
@@ -1682,7 +1681,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E66" s="9">
         <f t="shared" si="0"/>
         <v>637</v>
@@ -1692,7 +1691,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E67" s="9">
         <f t="shared" si="0"/>
         <v>667</v>
@@ -1702,7 +1701,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E68" s="9">
         <f t="shared" si="0"/>
         <v>698</v>
@@ -1712,7 +1711,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E69" s="9">
         <f t="shared" si="0"/>
         <v>728</v>
@@ -1722,7 +1721,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E70" s="9">
         <f t="shared" si="0"/>
         <v>759</v>
@@ -1732,7 +1731,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E71" s="9">
         <f t="shared" si="0"/>
         <v>790</v>
@@ -1742,7 +1741,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E72" s="9">
         <f t="shared" si="0"/>
         <v>818</v>
@@ -1752,7 +1751,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E73" s="9">
         <f t="shared" si="0"/>
         <v>849</v>
@@ -1762,7 +1761,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E74" s="9">
         <f t="shared" si="0"/>
         <v>879</v>
@@ -1772,7 +1771,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E75" s="9">
         <f t="shared" si="0"/>
         <v>910</v>
@@ -1782,7 +1781,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E76" s="9">
         <f t="shared" si="0"/>
         <v>940</v>
@@ -1792,7 +1791,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E77" s="9">
         <f t="shared" si="0"/>
         <v>971</v>
@@ -1802,7 +1801,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E78" s="9">
         <f t="shared" si="0"/>
         <v>1002</v>
@@ -1812,7 +1811,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E79" s="9">
         <f t="shared" si="0"/>
         <v>1032</v>
@@ -1822,7 +1821,7 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E80" s="9">
         <f t="shared" si="0"/>
         <v>1063</v>
@@ -1832,37 +1831,37 @@
         <v>1499.48</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" s="9"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" s="9"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" s="9"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" s="9"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" s="8"/>
     </row>
   </sheetData>
@@ -1879,19 +1878,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1283DE-5EFA-4F11-AB69-060140645FDB}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1958,7 +1957,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2072,7 +2071,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2110,7 +2109,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2262,7 +2261,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2300,7 +2299,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2524,7 +2523,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2780,7 +2779,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2972,7 +2971,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3036,7 +3035,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3272,7 +3271,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3284,7 +3283,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3296,7 +3295,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3308,7 +3307,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3320,7 +3319,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3332,7 +3331,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3344,7 +3343,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3356,7 +3355,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3368,7 +3367,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3380,7 +3379,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3392,7 +3391,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3420,13 +3419,13 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>169</v>
       </c>
@@ -3437,7 +3436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3448,7 +3447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3470,7 +3469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -3543,52 +3542,52 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>119</v>
       </c>
